--- a/sm_core/update_account_tags.xlsx
+++ b/sm_core/update_account_tags.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sm-core\sm_core\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Career\github\portfolio\sm_core\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4EA9BC0-E2FA-4A74-9E1F-CF333DA03C99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{275B9777-1A6E-469C-87B7-8280196C956A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{56C5A45D-2192-4923-8CCD-FA3BF2DD117A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{56C5A45D-2192-4923-8CCD-FA3BF2DD117A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Account Number</t>
   </si>
@@ -43,12 +43,6 @@
   </si>
   <si>
     <t>Payout Name</t>
-  </si>
-  <si>
-    <t>Test Advisor</t>
-  </si>
-  <si>
-    <t>Test Payout</t>
   </si>
 </sst>
 </file>
@@ -432,7 +426,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -454,15 +448,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
-        <v>230164</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
+      <c r="A2" s="2"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A23:A1048576 A1 A3:A6">
